--- a/StructureDefinition-ext-R5-ImmunizationRecommendation.recommendation.xlsx
+++ b/StructureDefinition-ext-R5-ImmunizationRecommendation.recommendation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="272">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of vaccine administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-vaccine-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -458,12 +449,6 @@
   </si>
   <si>
     <t>Extension.extension:targetDisease.value[x]</t>
-  </si>
-  <si>
-    <t>The disease that the recommended vaccination targets.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-immunization-target-disease-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:contraindicatedVaccineCode</t>
@@ -529,12 +514,6 @@
     <t>Extension.extension:forecastStatus.value[x]</t>
   </si>
   <si>
-    <t>The patient's status with respect to a vaccination protocol.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-immunization-recommendation-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:forecastReason</t>
   </si>
   <si>
@@ -566,12 +545,6 @@
     <t>Extension.extension:forecastReason.value[x]</t>
   </si>
   <si>
-    <t>The reason for the patient's status with respect to a vaccination protocol.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-immunization-recommendation-reason-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:dateCriterion</t>
   </si>
   <si>
@@ -638,12 +611,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Classifies date criterion with respect to conveying information about a patient's vaccination status (e.g. due date, latest to give date, etc.).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-immunization-recommendation-date-criterion-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:dateCriterion.extension:value</t>
@@ -869,7 +836,7 @@
     <t>Extension.extension:supportingImmunization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Immunization|0.0.1-snapshot-3|Immunization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ImmunizationEvaluation|0.0.1-snapshot-3|ImmunizationEvaluation|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Immunization|Immunization|http://hl7.org/fhir/5.0/StructureDefinition/profile-ImmunizationEvaluation|ImmunizationEvaluation)
 </t>
   </si>
   <si>
@@ -904,7 +871,7 @@
     <t>Extension.extension:supportingPatientInformation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
 </sst>
@@ -1255,8 +1222,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="111.32421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="80.61328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2174,43 +2141,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2218,13 +2185,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2249,16 +2216,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2327,7 +2294,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2430,7 +2397,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2535,7 +2502,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2578,7 +2545,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2640,7 +2607,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2669,13 +2636,13 @@
         <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2701,32 +2668,32 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>84</v>
       </c>
@@ -2737,7 +2704,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2745,13 +2712,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2776,14 +2743,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2852,7 +2819,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2955,7 +2922,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3060,7 +3027,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3103,7 +3070,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3165,7 +3132,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3194,10 +3161,10 @@
         <v>124</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3224,43 +3191,43 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3268,13 +3235,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3299,14 +3266,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3375,7 +3342,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3478,7 +3445,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3583,7 +3550,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3626,7 +3593,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3688,7 +3655,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3717,10 +3684,10 @@
         <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3747,32 +3714,32 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
       </c>
@@ -3783,7 +3750,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -3791,13 +3758,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3822,14 +3789,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3898,7 +3865,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4001,7 +3968,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4106,7 +4073,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4149,7 +4116,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4211,7 +4178,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4240,10 +4207,10 @@
         <v>124</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4270,32 +4237,32 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
       </c>
@@ -4306,7 +4273,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4314,13 +4281,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4345,14 +4312,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4421,7 +4388,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4524,7 +4491,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4535,7 +4502,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -4627,13 +4594,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4658,14 +4625,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4734,10 +4701,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4837,10 +4804,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4942,10 +4909,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4985,7 +4952,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5047,10 +5014,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5076,10 +5043,10 @@
         <v>124</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5106,32 +5073,32 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG37" t="s" s="2">
         <v>84</v>
       </c>
@@ -5142,7 +5109,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>121</v>
@@ -5150,13 +5117,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5181,14 +5148,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5257,10 +5224,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5360,10 +5327,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5465,10 +5432,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5508,7 +5475,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5570,10 +5537,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5596,13 +5563,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5653,7 +5620,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>84</v>
@@ -5665,7 +5632,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>121</v>
@@ -5673,7 +5640,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5716,7 +5683,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5778,7 +5745,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -5804,13 +5771,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5861,7 +5828,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>84</v>
@@ -5873,7 +5840,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>121</v>
@@ -5881,13 +5848,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5912,14 +5879,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5988,7 +5955,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6091,7 +6058,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6196,7 +6163,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6239,7 +6206,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6301,7 +6268,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -6327,13 +6294,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6384,7 +6351,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>84</v>
@@ -6396,7 +6363,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>121</v>
@@ -6404,13 +6371,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6435,14 +6402,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6511,7 +6478,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -6614,7 +6581,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -6719,7 +6686,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -6762,7 +6729,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6824,7 +6791,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -6853,10 +6820,10 @@
         <v>88</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6907,7 +6874,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>84</v>
@@ -6919,7 +6886,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>121</v>
@@ -6927,13 +6894,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6958,16 +6925,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7036,7 +7003,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -7139,7 +7106,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -7244,7 +7211,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7287,7 +7254,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7349,7 +7316,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7378,13 +7345,13 @@
         <v>88</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7434,7 +7401,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>84</v>
@@ -7446,7 +7413,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>121</v>
@@ -7454,13 +7421,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7485,16 +7452,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7563,7 +7530,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -7666,7 +7633,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -7771,7 +7738,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -7814,7 +7781,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7876,7 +7843,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -7905,13 +7872,13 @@
         <v>88</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7961,7 +7928,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>84</v>
@@ -7973,7 +7940,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>121</v>
@@ -7981,13 +7948,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8012,14 +7979,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8088,7 +8055,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -8191,7 +8158,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -8296,7 +8263,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -8339,7 +8306,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8401,7 +8368,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -8427,13 +8394,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8484,7 +8451,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>84</v>
@@ -8496,7 +8463,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>121</v>
@@ -8504,13 +8471,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8535,14 +8502,14 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8611,7 +8578,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -8714,7 +8681,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -8819,7 +8786,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -8862,7 +8829,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8924,7 +8891,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -8950,13 +8917,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9007,7 +8974,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>84</v>
@@ -9019,7 +8986,7 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>121</v>
@@ -9132,10 +9099,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9158,13 +9125,13 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9215,7 +9182,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>84</v>
@@ -9227,7 +9194,7 @@
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>121</v>
